--- a/Final test.xlsx
+++ b/Final test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B544D27-6766-47B9-B57D-38F06D049F03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE0EEA-AB59-40B9-A967-9E71F7965050}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="140">
   <si>
     <t>Test</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>Two stay in Not Configured: Turn Of encryption Support and Turn on Scripting Debugging</t>
-  </si>
-  <si>
-    <t>Program freezes whenever it is clicked, not usable and needs fixed. Exception thrown: 'System.ArgumentNullException' in mscorlib.dll</t>
   </si>
   <si>
     <t>First category doesn’t have a name, we should set up one instead of not having anything display</t>
@@ -826,20 +823,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="90.5703125" customWidth="1"/>
-    <col min="2" max="2" width="86.140625" customWidth="1"/>
-    <col min="3" max="3" width="82.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="123.28515625" customWidth="1"/>
+    <col min="1" max="1" width="90.59765625" customWidth="1"/>
+    <col min="2" max="2" width="86.1328125" customWidth="1"/>
+    <col min="3" max="3" width="82.59765625" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" customWidth="1"/>
+    <col min="5" max="5" width="123.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -856,7 +853,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -870,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -884,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -894,14 +891,11 @@
       <c r="C4" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -918,7 +912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -928,14 +922,11 @@
       <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -952,7 +943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -966,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -980,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -994,10 +985,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1025,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1067,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1081,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1123,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1137,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1193,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1207,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1221,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1235,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1249,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1277,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1291,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1305,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1319,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1333,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1361,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1375,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1389,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1417,7 +1408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1431,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1445,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1473,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1487,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1501,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1515,7 +1506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -1529,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1543,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -1571,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1585,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1599,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -1613,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -1627,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -1641,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -1655,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -1669,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -1683,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -1697,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -1711,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -1725,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -1739,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -1753,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -1767,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -1781,7 +1772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -1795,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -1809,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -1823,7 +1814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -1837,7 +1828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -1851,7 +1842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -1865,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -1879,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -1893,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -1907,7 +1898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -1921,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -1935,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -1949,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -1963,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -1977,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -1991,7 +1982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -2005,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -2019,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -2033,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -2047,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -2061,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -2075,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -2089,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -2103,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -2117,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -2131,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -2145,7 +2136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -2159,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -2173,7 +2164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -2187,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -2201,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -2215,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -2229,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -2243,7 +2234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -2257,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -2271,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -2285,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -2299,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -2313,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -2327,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -2341,7 +2332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -2355,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -2369,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>118</v>
       </c>
